--- a/カード当てゲーム/振り返り/71_開発体験シート .xlsx
+++ b/カード当てゲーム/振り返り/71_開発体験シート .xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909F8128-85D7-40B4-B63D-A521BE8C0CFA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9807C79-F345-47AE-BE18-8D72FB07D561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2341,12 +2341,12 @@
         <v>57</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>－</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2360,12 +2360,12 @@
         <v>57</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>－</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2565,18 +2565,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2598,6 +2598,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2611,12 +2619,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/カード当てゲーム/振り返り/71_開発体験シート .xlsx
+++ b/カード当てゲーム/振り返り/71_開発体験シート .xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9807C79-F345-47AE-BE18-8D72FB07D561}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C486FC4-3AD7-4249-9B9B-B937A5824570}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7170" yWindow="1110" windowWidth="13320" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G39" sqref="G39"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2101,7 +2101,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
@@ -2120,7 +2120,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
@@ -2565,18 +2565,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2598,14 +2598,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -2619,4 +2611,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>